--- a/biology/Botanique/Caucalide/Caucalide.xlsx
+++ b/biology/Botanique/Caucalide/Caucalide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caucalis, en français Caucalis, Caucalide ou Girouille, est un genre de plantes à fleurs de la famille des Apiaceae. Il ne comprend  qu'une seule espèce, Caucalis platycarpos, une plante herbacée annuelle. 
 </t>
@@ -511,11 +523,13 @@
           <t>Espèce</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une seule espèce est comprise dans le genre[1],[2],[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une seule espèce est comprise dans le genre :
 Caucalis platycarpos L. - Caucalis à feuilles de carotte ou Caucalis à fruits plats.
-Ce taxon ne doit pas être confondu avec Orlaya daucoides, nommé Orlaya platycarpos dans les flores françaises[4],[5].
+Ce taxon ne doit pas être confondu avec Orlaya daucoides, nommé Orlaya platycarpos dans les flores françaises,.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les taxons suivants sont des synonymes de Caucalis platycarpos ou bien d'autres espèces des genres Anthriscus, Daucus, Orlaya, Torilis, Turgenia.
-D'après Tropicos                                           (26 décembre 2020)[6] :
+D'après Tropicos                                           (26 décembre 2020) :
 Caucalis abyssinica Hochst. ex A. Rich.
 Caucalis aequicolorum All.
 Caucalis africana (L.) Crantz
